--- a/arquivos_temp/Alunos.xlsx
+++ b/arquivos_temp/Alunos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Univesp\Projeto Integrador\Univesp-PI\.testes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTI-GRC\Documents\Bruno\Dev\Univesp_PI_2024_1\arquivos_temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AC18D-6607-4649-B2A1-5FE2AAF1DBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39504384-AFB5-45E0-BF42-327B87491668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F7689B1-1AFD-4EF7-9FBB-57502D5E640C}"/>
   </bookViews>
@@ -288,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>Responsavel de ANA BEATRIZ DOS SANTOS SILVA</v>
       </c>
       <c r="E2">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>Responsavel de ANA CAROLINA DA SILVA</v>
       </c>
       <c r="E3">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>Responsavel de CAIO AUGUSTO DA SILVA PACITO FERREIRA</v>
       </c>
       <c r="E4">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>Responsavel de DAVI RIBEIRO MORENO</v>
       </c>
       <c r="E5">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>Responsavel de DEYVID JOAQUIM TERENCIO DE ALMEIDA</v>
       </c>
       <c r="E6">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>Responsavel de EDUARDA DE SOUZA NASCIMENTO</v>
       </c>
       <c r="E7">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>Responsavel de ELOANY FRAY DE OLIVEIRA</v>
       </c>
       <c r="E8">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>Responsavel de ENZO FELIPE LOPES DE CARVALHO</v>
       </c>
       <c r="E9">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>Responsavel de ENZO RODRIGUES CAVALHEIRO</v>
       </c>
       <c r="E10">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>Responsavel de EVELLYN YASMIN DA SILVA OLIVEIRA</v>
       </c>
       <c r="E11">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>Responsavel de FABÍOLA TOLEDO COELHO</v>
       </c>
       <c r="E12">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>Responsavel de GUILHERME CIRILLO DOS SANTOS</v>
       </c>
       <c r="E13">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>Responsavel de GUSTAVO HENRIQUE BARBOSA FERREIRA DOS SANTOS</v>
       </c>
       <c r="E14">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>Responsavel de GUSTAVO VIANA DE LIMA SOUZA</v>
       </c>
       <c r="E15">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>Responsavel de IGOR EVAN DE SOUZA GARCIA</v>
       </c>
       <c r="E16">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>Responsavel de IOLLY GABRIELA MESSIAS DINIZ VIUDES</v>
       </c>
       <c r="E17">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>Responsavel de IRIS RYANNY SILVA AMARAL</v>
       </c>
       <c r="E18">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>Responsavel de ISABEL DOS SANTOS EDUARDO</v>
       </c>
       <c r="E19">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>Responsavel de JULIA AIRES DA SILVA</v>
       </c>
       <c r="E20">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>Responsavel de JULIA ALMEIDA MOURA</v>
       </c>
       <c r="E21">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>Responsavel de KENNEDY DANTAS DA SILVA</v>
       </c>
       <c r="E22">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>Responsavel de LOHAN DANIEL EDUARDO</v>
       </c>
       <c r="E23">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>Responsavel de LUCAS GABRIEL DE SOUSA ALVES</v>
       </c>
       <c r="E24">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>Responsavel de MARIA DE FATIMA CARVALHO BORGES GOMES</v>
       </c>
       <c r="E25">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>Responsavel de OTAVIO RODRIGUES DA SILVA GOMES</v>
       </c>
       <c r="E26">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>Responsavel de PEDRO HENRIQUE ARRUDA MENDES JULIO</v>
       </c>
       <c r="E27">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>Responsavel de RAYSSA NUNCIATELLI SILVA NEVES</v>
       </c>
       <c r="E28">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>Responsavel de RYAN HENRY DA SILVA DOS REIS</v>
       </c>
       <c r="E29">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>Responsavel de SAMUEL SILAS PINTO PINHEIRO DA SILVA</v>
       </c>
       <c r="E30">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>Responsavel de WENDER FERREIRA DA SILVA AGUIAR</v>
       </c>
       <c r="E31">
-        <v>18991234567</v>
+        <v>18998014145</v>
       </c>
     </row>
   </sheetData>

--- a/arquivos_temp/Alunos.xlsx
+++ b/arquivos_temp/Alunos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTI-GRC\Documents\Bruno\Dev\Univesp_PI_2024_1\arquivos_temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39504384-AFB5-45E0-BF42-327B87491668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE00D39-9E18-4BCC-9275-F31103EAB86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F7689B1-1AFD-4EF7-9FBB-57502D5E640C}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
